--- a/artfynd/A 26385-2023.xlsx
+++ b/artfynd/A 26385-2023.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>80000956</v>
+        <v>98350752</v>
       </c>
       <c r="B2" t="n">
-        <v>57133</v>
+        <v>93132</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,55 +692,41 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>100041</v>
+        <v>2671</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Hasselsnok</t>
+          <t>Fällmossa</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Coronella austriaca</t>
+          <t>Antitrichia curtipendula</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Laurenti, 1768</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>ex.</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>observerad</t>
-        </is>
-      </c>
+          <t>(Hedw.) Brid.</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Ekbacken, Ög</t>
+          <t>Korpklint, Ög</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>574245.9331973131</v>
+        <v>573934.5192830344</v>
       </c>
       <c r="R2" t="n">
-        <v>6505393.860064601</v>
+        <v>6505660.931744166</v>
       </c>
       <c r="S2" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
@@ -764,7 +750,7 @@
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>2015-07-13</t>
+          <t>2022-01-26</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
@@ -774,17 +760,12 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2015-07-13</t>
+          <t>2022-01-26</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>observerad</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -796,34 +777,25 @@
       <c r="AG2" t="b">
         <v>0</v>
       </c>
-      <c r="AI2" t="inlineStr">
-        <is>
-          <t>rasbrant</t>
-        </is>
-      </c>
       <c r="AT2" t="inlineStr"/>
       <c r="AW2" t="inlineStr">
         <is>
-          <t>Elin Håkansson</t>
+          <t>Marika Sjödin</t>
         </is>
       </c>
       <c r="AX2" t="inlineStr">
         <is>
-          <t>Mikael Hagström</t>
-        </is>
-      </c>
-      <c r="AY2" t="inlineStr">
-        <is>
-          <t>Ostlänken Norrköpings kommun (OLP2)</t>
-        </is>
-      </c>
+          <t>Marika Sjödin, Eva Siljeholm</t>
+        </is>
+      </c>
+      <c r="AY2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>97784188</v>
+        <v>80000956</v>
       </c>
       <c r="B3" t="n">
-        <v>78098</v>
+        <v>57133</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -832,41 +804,55 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>6453</v>
+        <v>100041</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Hasselsnok</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Coronella austriaca</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr"/>
+          <t>Laurenti, 1768</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>ex.</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>observerad</t>
+        </is>
+      </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Korpklint, Ög</t>
+          <t>Ekbacken, Ög</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>574267.5050753297</v>
+        <v>574245.9331973131</v>
       </c>
       <c r="R3" t="n">
-        <v>6505328.227546699</v>
+        <v>6505393.860064601</v>
       </c>
       <c r="S3" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
@@ -890,7 +876,7 @@
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>2021-12-30</t>
+          <t>2015-07-13</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
@@ -900,12 +886,17 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2021-12-30</t>
+          <t>2015-07-13</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC3" t="inlineStr">
+        <is>
+          <t>observerad</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -917,25 +908,34 @@
       <c r="AG3" t="b">
         <v>0</v>
       </c>
+      <c r="AI3" t="inlineStr">
+        <is>
+          <t>rasbrant</t>
+        </is>
+      </c>
       <c r="AT3" t="inlineStr"/>
       <c r="AW3" t="inlineStr">
         <is>
-          <t>Marika Sjödin</t>
+          <t>Elin Håkansson</t>
         </is>
       </c>
       <c r="AX3" t="inlineStr">
         <is>
-          <t>Marika Sjödin, Eva Siljeholm</t>
-        </is>
-      </c>
-      <c r="AY3" t="inlineStr"/>
+          <t>Mikael Hagström</t>
+        </is>
+      </c>
+      <c r="AY3" t="inlineStr">
+        <is>
+          <t>Ostlänken Norrköpings kommun (OLP2)</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>98350752</v>
+        <v>97784188</v>
       </c>
       <c r="B4" t="n">
-        <v>93132</v>
+        <v>78098</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -944,25 +944,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>2671</v>
+        <v>6453</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Fällmossa</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Antitrichia curtipendula</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Hedw.) Brid.</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -972,10 +972,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>573934.5192830344</v>
+        <v>574267.5050753297</v>
       </c>
       <c r="R4" t="n">
-        <v>6505660.931744166</v>
+        <v>6505328.227546699</v>
       </c>
       <c r="S4" t="n">
         <v>15</v>
@@ -1002,7 +1002,7 @@
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>2022-01-26</t>
+          <t>2021-12-30</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
@@ -1012,7 +1012,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2022-01-26</t>
+          <t>2021-12-30</t>
         </is>
       </c>
       <c r="AB4" t="inlineStr">

--- a/artfynd/A 26385-2023.xlsx
+++ b/artfynd/A 26385-2023.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>98350752</v>
+        <v>80000956</v>
       </c>
       <c r="B2" t="n">
-        <v>93132</v>
+        <v>57133</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,41 +692,55 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>2671</v>
+        <v>100041</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Fällmossa</t>
+          <t>Hasselsnok</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Antitrichia curtipendula</t>
+          <t>Coronella austriaca</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Hedw.) Brid.</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr"/>
+          <t>Laurenti, 1768</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>ex.</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>observerad</t>
+        </is>
+      </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Korpklint, Ög</t>
+          <t>Ekbacken, Ög</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>573934.5192830344</v>
+        <v>574245.9331973131</v>
       </c>
       <c r="R2" t="n">
-        <v>6505660.931744166</v>
+        <v>6505393.860064601</v>
       </c>
       <c r="S2" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
@@ -750,7 +764,7 @@
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>2022-01-26</t>
+          <t>2015-07-13</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
@@ -760,12 +774,17 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2022-01-26</t>
+          <t>2015-07-13</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC2" t="inlineStr">
+        <is>
+          <t>observerad</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -777,25 +796,34 @@
       <c r="AG2" t="b">
         <v>0</v>
       </c>
+      <c r="AI2" t="inlineStr">
+        <is>
+          <t>rasbrant</t>
+        </is>
+      </c>
       <c r="AT2" t="inlineStr"/>
       <c r="AW2" t="inlineStr">
         <is>
-          <t>Marika Sjödin</t>
+          <t>Elin Håkansson</t>
         </is>
       </c>
       <c r="AX2" t="inlineStr">
         <is>
-          <t>Marika Sjödin, Eva Siljeholm</t>
-        </is>
-      </c>
-      <c r="AY2" t="inlineStr"/>
+          <t>Mikael Hagström</t>
+        </is>
+      </c>
+      <c r="AY2" t="inlineStr">
+        <is>
+          <t>Ostlänken Norrköpings kommun (OLP2)</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>80000956</v>
+        <v>97784188</v>
       </c>
       <c r="B3" t="n">
-        <v>57133</v>
+        <v>78098</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -804,55 +832,41 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>100041</v>
+        <v>6453</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Hasselsnok</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Coronella austriaca</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Laurenti, 1768</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>ex.</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>observerad</t>
-        </is>
-      </c>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Ekbacken, Ög</t>
+          <t>Korpklint, Ög</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>574245.9331973131</v>
+        <v>574267.5050753297</v>
       </c>
       <c r="R3" t="n">
-        <v>6505393.860064601</v>
+        <v>6505328.227546699</v>
       </c>
       <c r="S3" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
@@ -876,7 +890,7 @@
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>2015-07-13</t>
+          <t>2021-12-30</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
@@ -886,17 +900,12 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2015-07-13</t>
+          <t>2021-12-30</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC3" t="inlineStr">
-        <is>
-          <t>observerad</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -908,34 +917,25 @@
       <c r="AG3" t="b">
         <v>0</v>
       </c>
-      <c r="AI3" t="inlineStr">
-        <is>
-          <t>rasbrant</t>
-        </is>
-      </c>
       <c r="AT3" t="inlineStr"/>
       <c r="AW3" t="inlineStr">
         <is>
-          <t>Elin Håkansson</t>
+          <t>Marika Sjödin</t>
         </is>
       </c>
       <c r="AX3" t="inlineStr">
         <is>
-          <t>Mikael Hagström</t>
-        </is>
-      </c>
-      <c r="AY3" t="inlineStr">
-        <is>
-          <t>Ostlänken Norrköpings kommun (OLP2)</t>
-        </is>
-      </c>
+          <t>Marika Sjödin, Eva Siljeholm</t>
+        </is>
+      </c>
+      <c r="AY3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>97784188</v>
+        <v>98350752</v>
       </c>
       <c r="B4" t="n">
-        <v>78098</v>
+        <v>93132</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -944,25 +944,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>6453</v>
+        <v>2671</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Fällmossa</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Antitrichia curtipendula</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(Hedw.) Brid.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -972,10 +972,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>574267.5050753297</v>
+        <v>573934.5192830344</v>
       </c>
       <c r="R4" t="n">
-        <v>6505328.227546699</v>
+        <v>6505660.931744166</v>
       </c>
       <c r="S4" t="n">
         <v>15</v>
@@ -1002,7 +1002,7 @@
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>2021-12-30</t>
+          <t>2022-01-26</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
@@ -1012,7 +1012,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2021-12-30</t>
+          <t>2022-01-26</t>
         </is>
       </c>
       <c r="AB4" t="inlineStr">
